--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="232">
   <si>
     <t>Identifier</t>
   </si>
@@ -644,6 +644,96 @@
   </si>
   <si>
     <t>£11.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807693</t>
+  </si>
+  <si>
+    <t>Create a Veteran Policy with Activity Group 2, a Basic Cover Plan, a Optional Cover with VF and Direct Debit Monthly Payment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807694</t>
+  </si>
+  <si>
+    <t>£125.98</t>
+  </si>
+  <si>
+    <t>£11.45</t>
+  </si>
+  <si>
+    <t>Create a Veteran Policy with Activity Group 4, a Basic cover plan, a Optional cover with Saddlery&amp;Tack and Direct Debit Annual Payment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807696</t>
+  </si>
+  <si>
+    <t>£182.40</t>
+  </si>
+  <si>
+    <t>£16.58</t>
+  </si>
+  <si>
+    <t>Create a Veteran Policy with Activity Group 5, a Basic cover plan, a Optional cover with HorseTrailer and Direct Debit Monthly Payment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807697</t>
+  </si>
+  <si>
+    <t>£147.63</t>
+  </si>
+  <si>
+    <t>£13.42</t>
+  </si>
+  <si>
+    <t>Create a Veteran Quote with Activity Group 1 and a Basic Cover Plan.</t>
+  </si>
+  <si>
+    <t>EQC9807699</t>
+  </si>
+  <si>
+    <t>£96.30</t>
+  </si>
+  <si>
+    <t>£8.75</t>
+  </si>
+  <si>
+    <t>Create a Veteran Quote with Activity Group 2, a Basic Cover Plan, and Optional Cover with VF.</t>
+  </si>
+  <si>
+    <t>EQC9807700</t>
+  </si>
+  <si>
+    <t>Create Veteran Quote with Activity Group 3, a Basic cover plan, and Optional cover with Disposal.</t>
+  </si>
+  <si>
+    <t>EQC9807701</t>
+  </si>
+  <si>
+    <t>£169.25</t>
+  </si>
+  <si>
+    <t>£15.38</t>
+  </si>
+  <si>
+    <t>Create Veteran Quote with Activity Group 4, a Basic cover plan, and Optional cover with Saddlery&amp;Tack.</t>
+  </si>
+  <si>
+    <t>EQC9807702</t>
+  </si>
+  <si>
+    <t>Create Veteran Quote with Activity Group 5, a Basic cover plan, and Optional cover with HorseTrailer.</t>
+  </si>
+  <si>
+    <t>EQC9807703</t>
+  </si>
+  <si>
+    <t>Create a Veteran Quote with Activity Group 6 and a Basic Cover Plan.</t>
+  </si>
+  <si>
+    <t>EQC9807704</t>
   </si>
 </sst>
 </file>
@@ -2973,7 +3063,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CDA6EB-E6AA-42A6-A3D3-CADE99361990}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
@@ -3015,6 +3105,76 @@
         <v>201</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B6" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>212</v>
+      </c>
+      <c r="B7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>215</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,7 +3182,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D37A72-CE9F-4DF9-8DE1-7326E3603FBC}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -3050,6 +3210,90 @@
         <v>149</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>230</v>
+      </c>
+      <c r="B7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" t="s">
+        <v>218</v>
+      </c>
+      <c r="D7" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="250">
   <si>
     <t>Identifier</t>
   </si>
@@ -734,6 +734,60 @@
   </si>
   <si>
     <t>EQC9807704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807816</t>
+  </si>
+  <si>
+    <t>EQC9807821</t>
+  </si>
+  <si>
+    <t>EQC9807822</t>
+  </si>
+  <si>
+    <t>EQC9807823</t>
+  </si>
+  <si>
+    <t>EQC9807824</t>
+  </si>
+  <si>
+    <t>EQC9807825</t>
+  </si>
+  <si>
+    <t>EQC9807826</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807840</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807841</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807843</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807844</t>
+  </si>
+  <si>
+    <t>EQC9807847</t>
+  </si>
+  <si>
+    <t>EQC9807848</t>
+  </si>
+  <si>
+    <t>EQC9807849</t>
+  </si>
+  <si>
+    <t>EQC9807850</t>
+  </si>
+  <si>
+    <t>EQC9807851</t>
+  </si>
+  <si>
+    <t>EQC9807852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   EQC9807865</t>
   </si>
 </sst>
 </file>
@@ -3063,7 +3117,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CDA6EB-E6AA-42A6-A3D3-CADE99361990}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
@@ -3175,6 +3229,90 @@
         <v>215</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C9" t="s">
+        <v>200</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C10" t="s">
+        <v>206</v>
+      </c>
+      <c r="D10" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+      <c r="B12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" t="s">
+        <v>249</v>
+      </c>
+      <c r="C13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" t="s">
+        <v>201</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3182,7 +3320,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D37A72-CE9F-4DF9-8DE1-7326E3603FBC}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
@@ -3294,6 +3432,174 @@
         <v>219</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" t="s">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" t="s">
+        <v>236</v>
+      </c>
+      <c r="C11" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>230</v>
+      </c>
+      <c r="B13" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>216</v>
+      </c>
+      <c r="B14" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D14" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>220</v>
+      </c>
+      <c r="B15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" t="s">
+        <v>206</v>
+      </c>
+      <c r="D15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" t="s">
+        <v>245</v>
+      </c>
+      <c r="C16" t="s">
+        <v>224</v>
+      </c>
+      <c r="D16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" t="s">
+        <v>210</v>
+      </c>
+      <c r="D17" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>230</v>
+      </c>
+      <c r="B19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C19" t="s">
+        <v>218</v>
+      </c>
+      <c r="D19" t="s">
+        <v>219</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
